--- a/biology/Zoologie/Couleuvre_d'eau/Couleuvre_d'eau.xlsx
+++ b/biology/Zoologie/Couleuvre_d'eau/Couleuvre_d'eau.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Couleuvre_d%27eau</t>
+          <t>Couleuvre_d'eau</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nerodia sipedon
-La Couleuvre d'eau, Nerodia sipedon, est une espèce de serpents de la famille des Natricidae[1]. 
+La Couleuvre d'eau, Nerodia sipedon, est une espèce de serpents de la famille des Natricidae. 
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Couleuvre_d%27eau</t>
+          <t>Couleuvre_d'eau</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre :
 aux États-Unis dans l'est du Colorado, au Nebraska, au Kansas, en Iowa, en Oklahoma, au Missouri, dans le sud-est de la Louisiane, en Arkansas, au Mississippi, en Alabama, dans le nord de la Géorgie, dans le nord-ouest de la Caroline du Sud, dans le nord-ouest de la Floride, en Caroline du Nord, dans le sud-est du Minnesota, au Wisconsin, en Illinois, au Tennessee, au Kentucky, en Virginie-Occidentale, en Virginie, en Indiana, en Ohio, en Pennsylvanie, dans l'État de New York, au Vermont, au New Hampshire, dans le sud du Maine, au Massachusetts, au Connecticut, au New Jersey, au Delaware, au Maryland et au Michigan ;
 au Canada en Ontario et au Québec.</t>
         </is>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Couleuvre_d%27eau</t>
+          <t>Couleuvre_d'eau</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,11 +558,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce de couleuvre est une très bonne nageuse et on la trouve près des cours d'eau.
 Elle peut atteindre de 60 à 100 cm de long en moyenne et cette espèce est la plus grande des couleuvres du Québec. Son corps est caractérisé par une série de bandes sur le dos constituées de carrés brun foncé entrecoupés de bandes crème ou brun clair. On la distingue également par une marque foncée sur la tête et le cou.
-La couleuvre d'eau possède des écailles carénées et une plaque anale divisée. Cette espèce est ovovivipare[1] et donne naissance à une trentaine de petits.
+La couleuvre d'eau possède des écailles carénées et une plaque anale divisée. Cette espèce est ovovivipare et donne naissance à une trentaine de petits.
 </t>
         </is>
       </c>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Couleuvre_d%27eau</t>
+          <t>Couleuvre_d'eau</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,9 +593,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (10 septembre 2013)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (10 septembre 2013) :
 Nerodia sipedon insularum (Conant &amp; Clay, 1937)
 Nerodia sipedon pleuralis (Cope, 1892)
 Nerodia sipedon sipedon (Linnaeus, 1758)
@@ -593,7 +611,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Couleuvre_d%27eau</t>
+          <t>Couleuvre_d'eau</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -611,7 +629,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Conant &amp; Clay, 1937 : A new subspecies of water snake from Islands in Lake Erie. Occasional Papers of the Museum of Zoology, University of Michigan, no 346, p. 1-9 (texte intégral).
 Conant &amp; Lazell, 1973 : The Carolina salt marsh snake: a distinct form of Natrix sipedon. Brevoria, no 400, p. 3 (texte intégral).
